--- a/Tehtäväluettelo + Ajoitussuunnitelma.xlsx
+++ b/Tehtäväluettelo + Ajoitussuunnitelma.xlsx
@@ -105,57 +105,15 @@
     <t>Kokous pidetty</t>
   </si>
   <si>
-    <t>Tutkimuksen suunnittelu</t>
-  </si>
-  <si>
-    <t>Teoriatausta ja tutkimuskysymykset laadittu</t>
-  </si>
-  <si>
     <t>Projekti käynnistetty</t>
   </si>
   <si>
-    <t>Teoriataustan koostaminen</t>
-  </si>
-  <si>
     <t>Teoriatausta kirjoitettu</t>
   </si>
   <si>
     <t>Projekti on käynnistetty</t>
   </si>
   <si>
-    <t>Tutkimuskysymysten laadinta</t>
-  </si>
-  <si>
-    <t>Tutkimuskysymykset</t>
-  </si>
-  <si>
-    <t>Tutkimuksen toteutus</t>
-  </si>
-  <si>
-    <t>Tutkimusaineisto kerätty ja analysoitu</t>
-  </si>
-  <si>
-    <t>Tutkimuskysymykset on laadittu</t>
-  </si>
-  <si>
-    <t>Tutkimusaineiston keräys</t>
-  </si>
-  <si>
-    <t>Aineisto kerätty</t>
-  </si>
-  <si>
-    <t>Tutkimuskysymykset laadittu</t>
-  </si>
-  <si>
-    <t>Tutkimusaineiston analysointi</t>
-  </si>
-  <si>
-    <t>Aineisto on analysoitu</t>
-  </si>
-  <si>
-    <t>Tutkimusaineisto kerätty</t>
-  </si>
-  <si>
     <t>Projektin ohjaus</t>
   </si>
   <si>
@@ -202,13 +160,55 @@
   </si>
   <si>
     <t>Yhteensä:</t>
+  </si>
+  <si>
+    <t>Projektin suunnittelu</t>
+  </si>
+  <si>
+    <t>Teoriatausta ja projektikysymykset laadittu</t>
+  </si>
+  <si>
+    <t>Projektitaustan koostaminen</t>
+  </si>
+  <si>
+    <t>Projektikysymysten laadinta</t>
+  </si>
+  <si>
+    <t>Projektikysymykset</t>
+  </si>
+  <si>
+    <t>Projektitausta kirjoitettu</t>
+  </si>
+  <si>
+    <t>Projektin toteutus</t>
+  </si>
+  <si>
+    <t>Projektiosat on kerätty ja kasattu</t>
+  </si>
+  <si>
+    <t>Projektikysymykset on laadittu</t>
+  </si>
+  <si>
+    <t>Projektikysymykset laadittu</t>
+  </si>
+  <si>
+    <t>Projektin koodaaminen</t>
+  </si>
+  <si>
+    <t>Projektiosien keräys ja kokoaminen</t>
+  </si>
+  <si>
+    <t>Projektiosat kerätty ja koottu</t>
+  </si>
+  <si>
+    <t>Projektin koodi on saatu valmiiksi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +218,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -268,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -588,183 +595,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AB32"/>
+  <dimension ref="B3:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,225 +1104,226 @@
     <col min="13" max="28" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="10"/>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="71"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="61"/>
+      <c r="H5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="61"/>
+      <c r="J5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="37" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="22">
         <v>7</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="53">
         <v>8</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="22">
         <v>9</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="22">
         <v>10</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="35">
         <v>11</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="44">
         <v>12</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="35">
         <v>13</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="22">
         <v>14</v>
       </c>
-      <c r="U5" s="43">
+      <c r="U5" s="35">
         <v>15</v>
       </c>
-      <c r="V5" s="39">
+      <c r="V5" s="22">
         <v>16</v>
       </c>
-      <c r="W5" s="56">
+      <c r="W5" s="33">
         <v>17</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="22">
         <v>18</v>
       </c>
-      <c r="Y5" s="43">
+      <c r="Y5" s="35">
         <v>19</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="Z5" s="22">
         <v>20</v>
       </c>
-      <c r="AA5" s="39">
+      <c r="AA5" s="22">
         <v>21</v>
       </c>
-      <c r="AB5" s="39">
+      <c r="AB5" s="22">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
     </row>
     <row r="7" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+      <c r="B7" s="65">
         <v>1</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="47">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="13">
         <v>14</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="48">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="14">
         <v>6</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="15"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="48">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="14">
         <v>6</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="15"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="16"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="15"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1288,39 +1332,39 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
     </row>
     <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="48">
+      <c r="I10" s="37"/>
+      <c r="J10" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="14">
         <v>2</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="15"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="17"/>
+      <c r="P10" s="8"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="15"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1328,694 +1372,608 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
     </row>
     <row r="11" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="64">
         <v>2</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="15">
+        <v>70</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+    </row>
+    <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="49">
-        <v>120</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-    </row>
-    <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="48">
-        <v>100</v>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="14">
+        <v>50</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="15"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="10"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
     </row>
     <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="48">
+      <c r="C13" s="55"/>
+      <c r="D13" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="14">
         <v>20</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="15"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="48"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="15"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="64">
         <v>3</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="49">
-        <v>70</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="41"/>
+      <c r="L15" s="15">
+        <v>120</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="48">
-        <v>50</v>
+      <c r="K16" s="37"/>
+      <c r="L16" s="14">
+        <v>20</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="15"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="15"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="20"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="48">
-        <v>20</v>
+      <c r="C17" s="55"/>
+      <c r="D17" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="14">
+        <v>100</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="15"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="15"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="48"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="15"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="15"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
     </row>
     <row r="19" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+      <c r="B19" s="43">
         <v>4</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="41"/>
+      <c r="L19" s="15">
+        <v>14</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="49">
-        <v>14</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="48">
+      <c r="G20" s="37"/>
+      <c r="H20" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="14">
         <v>4</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="15"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="15"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="48">
+      <c r="G21" s="37"/>
+      <c r="H21" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="14">
         <v>8</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="15"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="16"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="7"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
     </row>
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="50">
+      <c r="C22" s="40"/>
+      <c r="D22" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="16">
         <v>2</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="15"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="17"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="8"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="K23" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="53">
-        <f>SUM(L7:L22)</f>
-        <v>436</v>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="K23" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="69">
+        <f>L7+L11+L15+L19</f>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="N24" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="60"/>
-      <c r="T24" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="63"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="N24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="26"/>
+      <c r="T24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="32"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="18"/>
-      <c r="N26" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="66"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="9"/>
+      <c r="N26" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="29"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B5:C6"/>
@@ -2036,6 +1994,92 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
